--- a/data/trans_bre/P19D_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19D_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.7295975645139952</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-5.552974209809267</v>
+        <v>-5.552974209809264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2587403042582091</v>
@@ -649,7 +649,7 @@
         <v>-0.0536479279259104</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3208193287110495</v>
+        <v>-0.3208193287110494</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.446541755310631</v>
+        <v>-6.64003635912561</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.81286334710218</v>
+        <v>-15.02745573095554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.040878146150733</v>
+        <v>-4.641758910214196</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.210332392809297</v>
+        <v>-9.111628723702998</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4387679470048975</v>
+        <v>-0.4527347662197622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5210504632952411</v>
+        <v>-0.5113603689622631</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3191831721028845</v>
+        <v>-0.3011526054730468</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4652990553486506</v>
+        <v>-0.4650813242314264</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.4167496338358536</v>
+        <v>-0.3095098898193657</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.057037870652477</v>
+        <v>-7.088505781780699</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.324705869669456</v>
+        <v>4.06696907721928</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.110269736837223</v>
+        <v>-1.982306771349628</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.0382851594747487</v>
+        <v>-0.02937434173157676</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2969760771914753</v>
+        <v>-0.2915648972658609</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2964504147227481</v>
+        <v>0.3556547996442991</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1443487799889697</v>
+        <v>-0.1381090582090492</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.266431392555413</v>
+        <v>-1.556572482625433</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.322339743738744</v>
+        <v>-3.126048391699674</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.243330071059694</v>
+        <v>-3.320127171454961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.771765147784068</v>
+        <v>-4.91527292430299</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2070940969011283</v>
+        <v>-0.2525251388082046</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2791776182247186</v>
+        <v>-0.2804124534421303</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2938325096918819</v>
+        <v>-0.2980218492551893</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5262658917226672</v>
+        <v>-0.5334982888425083</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.191939674226878</v>
+        <v>2.195801832742226</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.282703231823578</v>
+        <v>1.061480748481668</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6486652217540888</v>
+        <v>0.7649534370713434</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.476828188492215</v>
+        <v>-1.700150495342306</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4441615028604132</v>
+        <v>0.4730780170790458</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1479251985234494</v>
+        <v>0.1166908273269327</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07130395639679966</v>
+        <v>0.08828282184551513</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2186085594863003</v>
+        <v>-0.2231843141757232</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.654465793405031</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.03763106750729</v>
+        <v>-1.037631067507292</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1496486938192036</v>
@@ -849,7 +849,7 @@
         <v>0.5745532753800976</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.3219074996912687</v>
+        <v>-0.321907499691269</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.054775732123399</v>
+        <v>-3.150148523173999</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.613859772526868</v>
+        <v>-1.564916073885752</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6491492742094769</v>
+        <v>-0.7058897790280743</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.329274089993687</v>
+        <v>-3.302902149676457</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6469192468186061</v>
+        <v>-0.6676744747344552</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3513428153965769</v>
+        <v>-0.3645559350612327</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2028914054657454</v>
+        <v>-0.2188780046494131</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6877627149198766</v>
+        <v>-0.6633216614050458</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.769828165790148</v>
+        <v>1.921716867205201</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.346098366826864</v>
+        <v>4.304203589435732</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.361572367267815</v>
+        <v>4.150415660613104</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5757031308999332</v>
+        <v>0.635589465986108</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9625047833584397</v>
+        <v>0.9479146039138845</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.946341131541234</v>
+        <v>1.966548318265708</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.300886006845669</v>
+        <v>2.405604846811102</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2913536764696298</v>
+        <v>0.3286204552044727</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.3811628928160948</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.709744062463798</v>
+        <v>-2.709744062463797</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.06716772999388397</v>
@@ -949,7 +949,7 @@
         <v>-0.04106862147580602</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3172145974065813</v>
+        <v>-0.3172145974065812</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.995818800977585</v>
+        <v>-2.035713487179604</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.40124291606782</v>
+        <v>-4.392650121705674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.022178272895609</v>
+        <v>-2.051063952850059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.01975222440426</v>
+        <v>-4.096284687828534</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2438963438818913</v>
+        <v>-0.2595717597830285</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3017125105691138</v>
+        <v>-0.3038816073728082</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.200870912653292</v>
+        <v>-0.201201988273537</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4274044229642427</v>
+        <v>-0.4287401773736255</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8644789934657683</v>
+        <v>0.8986021560086614</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.8223331119444215</v>
+        <v>-0.9526357259575</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.241299936333925</v>
+        <v>1.095642058193582</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.510755664416715</v>
+        <v>-1.565353750091664</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1479035865117563</v>
+        <v>0.1362353804293921</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.06609869655583693</v>
+        <v>-0.07083225204936228</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1463722572354448</v>
+        <v>0.1293910664991962</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1923655911883051</v>
+        <v>-0.1972752337766331</v>
       </c>
     </row>
     <row r="16">
